--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,148 +46,148 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>nothing</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>nothing</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>5</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>even</t>
   </si>
   <si>
     <t>much</t>
@@ -199,15 +199,12 @@
     <t>little</t>
   </si>
   <si>
-    <t>get</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -220,12 +217,12 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -238,19 +235,16 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
-  </si>
-  <si>
-    <t>enjoy</t>
   </si>
   <si>
     <t>christmas</t>
@@ -620,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +622,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>0.8392857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -731,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -739,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -781,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -789,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>0.7204301075268817</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7378640776699029</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>0.5471698113207547</v>
+        <v>0.5625</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7365591397849462</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C7">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D7">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7">
-        <v>0.546875</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -931,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -939,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7323943661971831</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K8">
         <v>0.4347826086956522</v>
@@ -989,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6891891891891891</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="C9">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>0.3885245901639344</v>
+        <v>0.3557377049180328</v>
       </c>
       <c r="L9">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="M9">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>746</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6578947368421053</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>0.3228120516499283</v>
+        <v>0.3142037302725968</v>
       </c>
       <c r="L10">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M10">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6190476190476191</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>0.2925311203319502</v>
+        <v>0.2842323651452282</v>
       </c>
       <c r="L11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6181818181818182</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K12">
-        <v>0.2083333333333333</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1183,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6134453781512605</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13">
-        <v>0.2048929663608563</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>260</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1233,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5789473684210527</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1257,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>0.2048192771084337</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1281,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>132</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,13 +1283,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5777777777777777</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15">
-        <v>0.1798941798941799</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1333,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,28 +1354,28 @@
         <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K16">
-        <v>0.1236559139784946</v>
+        <v>0.125</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>163</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1389,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5416666666666666</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1407,31 +1401,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>0.108433734939759</v>
+        <v>0.1018437225636523</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>222</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1439,13 +1433,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5052631578947369</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1457,31 +1451,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18">
-        <v>0.09402460456942004</v>
+        <v>0.04096228868660598</v>
       </c>
       <c r="L18">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>1031</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1489,13 +1483,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1507,31 +1501,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19">
-        <v>0.04548408057179987</v>
-      </c>
-      <c r="L19">
-        <v>70</v>
-      </c>
-      <c r="M19">
-        <v>72</v>
-      </c>
-      <c r="N19">
-        <v>0.97</v>
-      </c>
-      <c r="O19">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1469</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1539,13 +1509,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4956521739130435</v>
+        <v>0.45</v>
       </c>
       <c r="C20">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1557,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>174</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1565,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4578313253012048</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1583,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,13 +1561,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4251968503937008</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1609,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1617,13 +1587,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4126984126984127</v>
+        <v>0.3613861386138614</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1635,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1643,7 +1613,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3770491803278688</v>
+        <v>0.359375</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1661,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1669,13 +1639,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.375</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1687,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1695,13 +1665,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3595505617977528</v>
+        <v>0.3359375</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1713,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1721,13 +1691,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3492063492063492</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1739,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1747,13 +1717,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3412322274881517</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C28">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1765,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>139</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1773,13 +1743,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3359375</v>
+        <v>0.2985781990521327</v>
       </c>
       <c r="C29">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1791,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>85</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1799,13 +1769,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3267326732673267</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C30">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1817,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>136</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1825,13 +1795,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.282051282051282</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1843,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1851,13 +1821,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2551020408163265</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1869,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>73</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1877,13 +1847,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2417582417582418</v>
+        <v>0.215</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1895,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>69</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1903,13 +1873,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2246376811594203</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C34">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D34">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1921,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1929,13 +1899,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.22</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C35">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1947,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>156</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1955,13 +1925,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.211340206185567</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C36">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1973,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>153</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1981,13 +1951,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2008928571428572</v>
+        <v>0.1857355126300149</v>
       </c>
       <c r="C37">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D37">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E37">
         <v>0.01</v>
@@ -1999,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2007,13 +1977,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1928571428571429</v>
+        <v>0.1828193832599119</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2025,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>113</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2033,25 +2003,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.189873417721519</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C39">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D39">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>256</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2059,13 +2029,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1847133757961783</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2077,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2085,13 +2055,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1835443037974684</v>
+        <v>0.171875</v>
       </c>
       <c r="C41">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2103,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>258</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2111,13 +2081,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1828571428571429</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2129,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>143</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2137,13 +2107,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1762114537444934</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="C43">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2155,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>374</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2163,25 +2133,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1728971962616822</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2189,25 +2159,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1556195965417868</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="C45">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D45">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E45">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2215,13 +2185,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1366120218579235</v>
+        <v>0.126027397260274</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2233,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>158</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2241,13 +2211,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1361256544502618</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2259,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2267,13 +2237,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1354166666666667</v>
+        <v>0.125</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2285,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2293,13 +2263,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1235955056179775</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C49">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D49">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2311,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2319,13 +2289,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1133603238866397</v>
+        <v>0.09887005649717515</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E50">
         <v>0.03</v>
@@ -2337,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>219</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2345,13 +2315,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1041095890410959</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="C51">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2363,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>327</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2371,13 +2341,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.08450704225352113</v>
+        <v>0.08214285714285714</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2389,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>325</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2397,25 +2367,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07906976744186046</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="C53">
         <v>34</v>
       </c>
       <c r="D53">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E53">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F53">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2423,25 +2393,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.07425742574257425</v>
+        <v>0.0756578947368421</v>
       </c>
       <c r="C54">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D54">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E54">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2449,25 +2419,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0623608017817372</v>
+        <v>0.05580357142857143</v>
       </c>
       <c r="C55">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2475,13 +2445,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.0514018691588785</v>
+        <v>0.03975535168195719</v>
       </c>
       <c r="C56">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E56">
         <v>0.04</v>
@@ -2493,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>406</v>
+        <v>628</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2501,51 +2471,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04683544303797468</v>
+        <v>0.03548795944233207</v>
       </c>
       <c r="C57">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D57">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E57">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F57">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.0444104134762634</v>
-      </c>
-      <c r="C58">
-        <v>29</v>
-      </c>
-      <c r="D58">
-        <v>31</v>
-      </c>
-      <c r="E58">
-        <v>0.06</v>
-      </c>
-      <c r="F58">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>624</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
